--- a/results/mod2.galtan.eff.COMB.xlsx
+++ b/results/mod2.galtan.eff.COMB.xlsx
@@ -404,25 +404,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0102045476227382</v>
+        <v>-0.010202111418828</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0357290606575822</v>
+        <v>0.0357292054995853</v>
       </c>
       <c r="D2" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.0802322197130463</v>
+        <v>-0.0802300673942456</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0598231244675699</v>
+        <v>0.0598258445565897</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.28560917737345</v>
+        <v>-0.28553983432255</v>
       </c>
       <c r="H2" t="n">
-        <v>0.775177473610547</v>
+        <v>0.775230590672095</v>
       </c>
     </row>
     <row r="3">
@@ -430,25 +430,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.129202457549044</v>
+        <v>-0.129205455077421</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0348529423534941</v>
+        <v>0.0348531171660212</v>
       </c>
       <c r="D3" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.197512969317143</v>
+        <v>-0.197516309471777</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.0608919457809445</v>
+        <v>-0.0608946006830647</v>
       </c>
       <c r="G3" t="n">
-        <v>-3.70707460617283</v>
+        <v>-3.70714201722494</v>
       </c>
       <c r="H3" t="n">
-        <v>0.00020966719099102</v>
+        <v>0.000209611409233276</v>
       </c>
     </row>
   </sheetData>
